--- a/docs/Protocol.xlsx
+++ b/docs/Protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnold\Documents\Universiteit\Computer Systems\Project\RAW-synthesizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnold\Documents\Universiteit\Computer Systems\Project\RAW-synthesizer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
   <si>
     <t>S</t>
   </si>
@@ -71,9 +72,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Reserved</t>
   </si>
   <si>
@@ -84,6 +82,12 @@
   </si>
   <si>
     <t>Channel</t>
+  </si>
+  <si>
+    <t>VO</t>
+  </si>
+  <si>
+    <t>Volume</t>
   </si>
 </sst>
 </file>
@@ -207,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,13 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -233,64 +231,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AM26"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,239 +622,460 @@
     <col min="2" max="41" width="3.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:39" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:39" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="3" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:39" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:39" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:39" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:39" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="4" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="19" t="s">
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="15" t="s">
+      <c r="M4" s="19"/>
+      <c r="N4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" s="14" t="s">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="13" t="s">
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="22" t="s">
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="1">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1">
+        <v>22</v>
+      </c>
+      <c r="N5" s="1">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1">
+        <v>20</v>
+      </c>
+      <c r="P5" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1">
+        <v>17</v>
+      </c>
+      <c r="S5" s="1">
+        <v>16</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1">
+        <v>15</v>
+      </c>
+      <c r="V5" s="1">
+        <v>14</v>
+      </c>
+      <c r="W5" s="1">
+        <v>13</v>
+      </c>
+      <c r="X5" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="1">
         <v>10</v>
       </c>
-      <c r="AC4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AA5" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE5" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AF5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="2:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="2:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="2:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="2:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="2:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:39" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L12" s="1">
+        <v>23</v>
+      </c>
+      <c r="M12" s="1">
+        <v>22</v>
+      </c>
+      <c r="N12" s="1">
+        <v>21</v>
+      </c>
+      <c r="O12" s="1">
+        <v>20</v>
+      </c>
+      <c r="P12" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>18</v>
+      </c>
+      <c r="R12" s="1">
         <v>17</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="S12" s="1">
         <v>16</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="2:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1">
+        <v>15</v>
+      </c>
+      <c r="V12" s="1">
+        <v>14</v>
+      </c>
+      <c r="W12" s="1">
+        <v>13</v>
+      </c>
+      <c r="X12" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -833,17 +1087,13 @@
     <row r="25" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="U4:X4"/>
+  <mergeCells count="23">
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AK13"/>
+    <mergeCell ref="C13:I13"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="AD4:AI4"/>
     <mergeCell ref="AJ4:AK4"/>
@@ -851,6 +1101,405 @@
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="U2:AB2"/>
     <mergeCell ref="AD2:AK2"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AM26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="39" width="4.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1">
+        <v>14</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+    </row>
+    <row r="2" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="33"/>
+    </row>
+    <row r="5" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="21"/>
+    </row>
+    <row r="7" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="35"/>
+    </row>
+    <row r="9" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="37"/>
+    </row>
+    <row r="11" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF12" s="27"/>
+    </row>
+    <row r="13" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="W6:AB6"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AD2:AI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Protocol.xlsx
+++ b/docs/Protocol.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
   <si>
     <t>S</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>OUD:</t>
+  </si>
+  <si>
+    <t>NEW:</t>
   </si>
 </sst>
 </file>
@@ -237,93 +243,93 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,7 +620,7 @@
   <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:S13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,57 +633,57 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
       <c r="AC2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
       <c r="AL2" s="5" t="s">
         <v>3</v>
       </c>
@@ -687,68 +693,71 @@
     </row>
     <row r="3" spans="1:39" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:39" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="15"/>
       <c r="T4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="23" t="s">
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
       <c r="AB4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AD4" s="24" t="s">
+      <c r="AD4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="26" t="s">
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AK4" s="27"/>
+      <c r="AK4" s="22"/>
       <c r="AL4" s="5" t="s">
         <v>3</v>
       </c>
@@ -839,11 +848,11 @@
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
@@ -852,11 +861,11 @@
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -868,11 +877,11 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -884,11 +893,11 @@
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -900,11 +909,11 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -916,11 +925,11 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1002,70 +1011,69 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <f>POWER(2,7)</f>
-        <v>128</v>
+      <c r="A13" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="21"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="U13" s="24" t="s">
+      <c r="U13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="39" t="s">
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="AC13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AD13" s="34" t="s">
+      <c r="AD13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="19" t="s">
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="26" t="s">
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="27"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="22"/>
       <c r="AL13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1088,11 +1096,8 @@
     <row r="26" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AI13:AK13"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="AD4:AI4"/>
@@ -1109,8 +1114,11 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AK13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1221,65 +1229,65 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="21"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
       <c r="T2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="23" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
       <c r="AB2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="26" t="s">
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="27"/>
+      <c r="AK2" s="22"/>
       <c r="AL2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1289,187 +1297,187 @@
     </row>
     <row r="3" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="18" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="33"/>
+      <c r="AF4" s="39"/>
     </row>
     <row r="5" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="22" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="22" t="s">
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="21"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="15"/>
     </row>
     <row r="7" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="34" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="35"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="36"/>
     </row>
     <row r="9" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="36" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AA10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
       <c r="AF10" s="37"/>
     </row>
     <row r="11" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
       <c r="AE12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AF12" s="27"/>
+      <c r="AF12" s="22"/>
     </row>
     <row r="13" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1487,6 +1495,11 @@
     <row r="26" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AD8:AF8"/>
     <mergeCell ref="AA10:AF10"/>
     <mergeCell ref="AE12:AF12"/>
@@ -1494,11 +1507,6 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AC6:AF6"/>
     <mergeCell ref="W6:AB6"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AD2:AI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Protocol.xlsx
+++ b/docs/Protocol.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId2"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
   <si>
     <t>S</t>
   </si>
@@ -217,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,76 +249,73 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,7 +618,7 @@
   <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D9" sqref="D9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,57 +631,57 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
       <c r="AC2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AD2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
       <c r="AL2" s="5" t="s">
         <v>3</v>
       </c>
@@ -699,65 +697,65 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="14" t="s">
+      <c r="M4" s="27"/>
+      <c r="N4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="15"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="29"/>
       <c r="T4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="19" t="s">
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
       <c r="AB4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AD4" s="16" t="s">
+      <c r="AD4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="21" t="s">
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AK4" s="22"/>
+      <c r="AK4" s="21"/>
       <c r="AL4" s="5" t="s">
         <v>3</v>
       </c>
@@ -893,11 +891,11 @@
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -909,11 +907,11 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -925,11 +923,11 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1017,63 +1015,61 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="15"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="29"/>
       <c r="T13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="U13" s="16" t="s">
+      <c r="U13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="12" t="s">
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AC13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="22"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="35"/>
       <c r="AL13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1078,56 @@
       </c>
     </row>
     <row r="14" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" spans="1:39" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1096,35 +1141,49 @@
     <row r="26" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="U2:AB2"/>
+    <mergeCell ref="AD2:AK2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="U4:X4"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="AD4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="U2:AB2"/>
-    <mergeCell ref="AD2:AK2"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="U4:X4"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="L13:S13"/>
-    <mergeCell ref="U13:AA13"/>
     <mergeCell ref="AD13:AE13"/>
     <mergeCell ref="AF13:AH13"/>
     <mergeCell ref="AI13:AK13"/>
+    <mergeCell ref="U13:AB13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM26"/>
   <sheetViews>
@@ -1229,65 +1288,65 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="14" t="s">
+      <c r="M2" s="27"/>
+      <c r="N2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="15"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="29"/>
       <c r="T2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="19" t="s">
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
       <c r="AB2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="21" t="s">
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="22"/>
+      <c r="AK2" s="21"/>
       <c r="AL2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1326,10 +1385,10 @@
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="30" t="s">
+      <c r="AE4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="39"/>
+      <c r="AF4" s="38"/>
     </row>
     <row r="5" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1354,20 +1413,20 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="13" t="s">
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="15"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="29"/>
     </row>
     <row r="7" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1399,11 +1458,11 @@
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
-      <c r="AD8" s="18" t="s">
+      <c r="AD8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="36"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="35"/>
     </row>
     <row r="9" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1434,14 +1493,14 @@
       <c r="Z10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AA10" s="16" t="s">
+      <c r="AA10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="37"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="36"/>
     </row>
     <row r="11" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1474,10 +1533,10 @@
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
-      <c r="AE12" s="38" t="s">
+      <c r="AE12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AF12" s="22"/>
+      <c r="AF12" s="21"/>
     </row>
     <row r="13" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1495,11 +1554,6 @@
     <row r="26" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AD8:AF8"/>
     <mergeCell ref="AA10:AF10"/>
     <mergeCell ref="AE12:AF12"/>
@@ -1508,6 +1562,11 @@
     <mergeCell ref="AC6:AF6"/>
     <mergeCell ref="W6:AB6"/>
     <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
